--- a/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
+++ b/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Ambiente QA</t>
-  </si>
-  <si>
-    <t>Flujo de DAMOP</t>
   </si>
   <si>
     <t>N° Caso</t>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>Protección de descarga de Documentos por token.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flujo de Doc Elec </t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas Doc Elec.xlsx]GRAFICOS!Tabla dinámica1</c:name>
+    <c:name>[Matriz de Pruebas Doc Elec.xlsx]GRAFICOS!Tabla dinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1547,7 +1547,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas Doc Elec.xlsx]GRAFICOS!Tabla dinámica2</c:name>
+    <c:name>[Matriz de Pruebas Doc Elec.xlsx]GRAFICOS!Tabla dinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1964,7 +1964,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas Doc Elec.xlsx]GRAFICOS!Tabla dinámica3</c:name>
+    <c:name>[Matriz de Pruebas Doc Elec.xlsx]GRAFICOS!Tabla dinámica3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -10506,7 +10506,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10683,8 +10798,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10735,121 +10850,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11140,7 +11140,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -11238,7 +11238,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="28" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
@@ -11253,46 +11253,46 @@
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -11300,28 +11300,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -11330,28 +11330,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -11360,25 +11360,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -11387,25 +11387,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -11414,25 +11414,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -11441,25 +11441,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -11468,25 +11468,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -11495,25 +11495,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -11522,25 +11522,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -11549,25 +11549,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -11576,25 +11576,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -11603,25 +11603,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="1"/>
     </row>
@@ -11630,25 +11630,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -11658,19 +11658,19 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -11680,19 +11680,19 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -12841,12 +12841,12 @@
     </row>
     <row r="354" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E354" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="355" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E355" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -12915,15 +12915,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="12">
         <v>41</v>
@@ -12931,7 +12931,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="15">
         <v>41</v>
@@ -12939,37 +12939,37 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="15"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -12995,56 +12995,56 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
+++ b/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\DOC ELEC\ENTREGABLES\Matriz de Pruebas doc elec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QA\Documents\GitHub\All-documents\DOC ELEC\ENTREGABLES\Matriz de Pruebas doc elec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="CPH" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t xml:space="preserve">Matriz de Pruebas </t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>capturista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agragar </t>
   </si>
   <si>
     <t>Pendiente</t>
@@ -295,9 +292,6 @@
     <t xml:space="preserve">Documentos Firmados </t>
   </si>
   <si>
-    <t xml:space="preserve">Por firmar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Enviados </t>
   </si>
   <si>
@@ -318,11 +312,38 @@
   <si>
     <t xml:space="preserve">Flujo de Doc Elec </t>
   </si>
+  <si>
+    <t>Mensaje de Firma generada correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación Correcta </t>
+  </si>
+  <si>
+    <t>Descarga el archivo firmado correctamente</t>
+  </si>
+  <si>
+    <t>Se visualizan los registros de documentos firmados</t>
+  </si>
+  <si>
+    <t>Direcciona a  la pantalla de Datos del firmante, para agregar nuevo documento</t>
+  </si>
+  <si>
+    <t>Por enviar</t>
+  </si>
+  <si>
+    <t>Busqueda y filtros funcionando correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar </t>
+  </si>
+  <si>
+    <t>No se visualizan registros</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,7 +765,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -880,7 +901,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -944,7 +965,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
@@ -1015,7 +1036,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
@@ -1086,7 +1107,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
@@ -1157,7 +1178,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1209,7 +1230,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1233,7 +1254,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1257,7 +1278,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1281,7 +1302,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1330,7 +1351,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -1338,9 +1359,6 @@
                       <c:h val="0.19387688277668627"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1418,7 +1436,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-02EC-495A-8B8F-3EA7E5F8CD95}"/>
             </c:ext>
@@ -1520,7 +1538,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1534,7 +1552,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1725,7 +1743,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2A21-478A-B235-4C607915975F}"/>
             </c:ext>
@@ -1741,11 +1759,11 @@
         </c:dLbls>
         <c:gapWidth val="326"/>
         <c:overlap val="-58"/>
-        <c:axId val="758273056"/>
-        <c:axId val="758273448"/>
+        <c:axId val="761176976"/>
+        <c:axId val="760758944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="758273056"/>
+        <c:axId val="761176976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1808,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758273448"/>
+        <c:crossAx val="760758944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="758273448"/>
+        <c:axId val="760758944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1878,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758273056"/>
+        <c:crossAx val="761176976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,7 +1955,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1951,7 +1969,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2606,7 +2624,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A312-4866-9CD0-0EF01A2514E4}"/>
             </c:ext>
@@ -2622,11 +2640,11 @@
         </c:dLbls>
         <c:gapWidth val="355"/>
         <c:overlap val="-70"/>
-        <c:axId val="665099440"/>
-        <c:axId val="665099832"/>
+        <c:axId val="760754048"/>
+        <c:axId val="760739280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="665099440"/>
+        <c:axId val="760754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2687,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665099832"/>
+        <c:crossAx val="760739280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="665099832"/>
+        <c:axId val="760739280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,7 +2757,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665099440"/>
+        <c:crossAx val="760754048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2817,7 +2835,7 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4693,7 +4711,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4729,7 +4747,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,7 +4783,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10506,122 +10524,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10798,8 +10701,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10850,6 +10753,121 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11138,9 +11156,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11197,7 +11215,7 @@
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -11238,7 +11256,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
@@ -11300,28 +11318,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -11330,163 +11348,178 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -11495,25 +11528,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -11522,25 +11555,28 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -11549,25 +11585,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -11576,25 +11612,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -11603,25 +11639,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" s="1"/>
     </row>
@@ -11630,25 +11666,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -11661,16 +11697,16 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -11683,16 +11719,16 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -12841,12 +12877,12 @@
     </row>
     <row r="354" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E354" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="355" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E355" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -12915,15 +12951,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12">
         <v>41</v>
@@ -12931,7 +12967,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="15">
         <v>41</v>
@@ -12939,37 +12975,37 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="15"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -12995,7 +13031,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -13006,45 +13042,45 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
+++ b/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="30" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t xml:space="preserve">Matriz de Pruebas </t>
   </si>
@@ -181,16 +181,7 @@
     <t xml:space="preserve">Generación correcta </t>
   </si>
   <si>
-    <t xml:space="preserve">Editar Registro </t>
-  </si>
-  <si>
     <t xml:space="preserve">Correcta Edición </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar Registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliinación Correcta </t>
   </si>
   <si>
     <t>oswaldo.cardenas</t>
@@ -338,6 +329,51 @@
   </si>
   <si>
     <t>No se visualizan registros</t>
+  </si>
+  <si>
+    <t>Generacion correcta de los registros</t>
+  </si>
+  <si>
+    <t>Se visualizan los registros archivados y se eliminan y decargan correctamente</t>
+  </si>
+  <si>
+    <t>Registro agregado y modificado</t>
+  </si>
+  <si>
+    <t>Mensaje de permiso generado correctamente</t>
+  </si>
+  <si>
+    <t>Jonathan Bustos</t>
+  </si>
+  <si>
+    <t>Jose Serna</t>
+  </si>
+  <si>
+    <t>Jose Angel Perez</t>
+  </si>
+  <si>
+    <t>Pedro Pardo</t>
+  </si>
+  <si>
+    <t>Cerrar Sesion</t>
+  </si>
+  <si>
+    <t>Salir de la aplicación</t>
+  </si>
+  <si>
+    <t>Salir de la aplicacion</t>
+  </si>
+  <si>
+    <t>0000081</t>
+  </si>
+  <si>
+    <t>Ventana para ingreso de leyenda</t>
+  </si>
+  <si>
+    <t>08/0572023</t>
+  </si>
+  <si>
+    <t>DE-6</t>
   </si>
 </sst>
 </file>
@@ -611,7 +647,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,7 +681,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,6 +854,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1313,8 +1355,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.26180467360934712"/>
-                  <c:y val="3.9292859757952651E-2"/>
+                  <c:x val="-0.1729778430571354"/>
+                  <c:y val="-0.2406679764243615"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1355,8 +1397,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.18773968997213356"/>
-                      <c:h val="0.19387688277668627"/>
+                      <c:w val="0.17420514406246199"/>
+                      <c:h val="0.19715127701375246"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1419,7 +1461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pendiente</c:v>
+                  <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1431,7 +1473,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,6 +1506,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1595,6 +1638,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1725,21 +1769,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25</c:f>
+              <c:f>GRAFICOS!$A$25:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Asignada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25</c:f>
+              <c:f>GRAFICOS!$B$25:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1759,11 +1806,11 @@
         </c:dLbls>
         <c:gapWidth val="326"/>
         <c:overlap val="-58"/>
-        <c:axId val="761176976"/>
-        <c:axId val="760758944"/>
+        <c:axId val="-124852448"/>
+        <c:axId val="-124855712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="761176976"/>
+        <c:axId val="-124852448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1855,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760758944"/>
+        <c:crossAx val="-124855712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1816,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="760758944"/>
+        <c:axId val="-124855712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1925,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="761176976"/>
+        <c:crossAx val="-124852448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,6 +1939,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2640,11 +2688,11 @@
         </c:dLbls>
         <c:gapWidth val="355"/>
         <c:overlap val="-70"/>
-        <c:axId val="760754048"/>
-        <c:axId val="760739280"/>
+        <c:axId val="-124858976"/>
+        <c:axId val="-124858432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="760754048"/>
+        <c:axId val="-124858976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2735,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760739280"/>
+        <c:crossAx val="-124858432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2695,7 +2743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="760739280"/>
+        <c:axId val="-124858432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2805,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760754048"/>
+        <c:crossAx val="-124858976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4842,13 +4890,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADOLFO ANGEL GARCIA" refreshedDate="45041.420602314814" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="350">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="QA" refreshedDate="45057.577307523148" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="350">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N1048576" sheet="CPH"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="14"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4867,20 +4915,20 @@
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
-        <s v="Pendiente"/>
+        <s v="Realizado"/>
         <m/>
-        <s v="Realizado" u="1"/>
+        <s v="Pendiente" u="1"/>
         <s v="Error" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
       <sharedItems containsNonDate="0" containsBlank="1" count="4">
@@ -4891,23 +4939,23 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="9">
         <m/>
+        <s v="Asignada"/>
         <s v="Confirmada" u="1"/>
         <s v="Resuelta" u="1"/>
         <s v="Aceptada" u="1"/>
         <s v="Pendiente de  validacion" u="1"/>
         <s v="Abierto" u="1"/>
-        <s v="Asignada" u="1"/>
         <s v="Cerrada " u="1"/>
         <s v="Cerrado" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4922,13 +4970,93 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="350">
   <r>
     <n v="1"/>
-    <s v="Catálogos"/>
-    <s v="Bancos"/>
+    <s v="Doc Elect "/>
+    <s v="Inicio "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Agragar "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Bienvenida "/>
+    <x v="0"/>
+    <s v="Direcciona al menú principal "/>
+    <s v="Muestra Pantalla bienvenida "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Doc Elect "/>
+    <s v="Firma e.firma"/>
+    <s v="capturista"/>
+    <s v="iclechuga"/>
+    <s v="Validar  "/>
+    <x v="0"/>
+    <s v="Carga de archivos"/>
+    <s v="Carga de documentos Certificado (cer) y Clave Privada (key)"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Doc Elect "/>
+    <s v="Firma e.firma"/>
+    <s v="capturista"/>
+    <s v="iclechuga"/>
+    <s v="Firmar "/>
+    <x v="0"/>
+    <s v="Mensaje de Firma generada correctamente"/>
+    <s v="Generación correcta "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Doc Elect "/>
+    <s v="Firma e.firma"/>
+    <s v="capturista"/>
+    <s v="iclechuga"/>
+    <s v="Descargar"/>
+    <x v="0"/>
+    <s v="Descarga el archivo firmado correctamente"/>
+    <s v="Correcta Edición "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Doc Elect "/>
+    <s v="Firma e.firma"/>
+    <s v="capturista"/>
+    <s v="iclechuga"/>
+    <s v="Firmar Nuevo Documento "/>
+    <x v="0"/>
+    <s v="Direcciona a  la pantalla de Datos del firmante, para agregar nuevo documento"/>
+    <s v="Eliminación Correcta "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Doc Elect "/>
+    <s v="Firma e.firma"/>
+    <s v="capturista"/>
+    <s v="iclechuga"/>
+    <s v="Ver Documentos Firmados "/>
+    <x v="0"/>
+    <s v="Se visualizan los registros de documentos firmados"/>
     <s v="Registro Agregado  "/>
     <m/>
     <x v="0"/>
@@ -4937,14 +5065,14 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
-    <s v="Catálogos"/>
-    <s v="Bancos"/>
+    <n v="7"/>
+    <s v="Doc Elect "/>
+    <s v="Documentos Firmados "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Busqueda "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Por enviar"/>
+    <x v="0"/>
+    <s v="Busqueda y filtros funcionando correctamente"/>
     <s v="Busqueda Correcta "/>
     <m/>
     <x v="0"/>
@@ -4953,14 +5081,14 @@
     <m/>
   </r>
   <r>
-    <n v="3"/>
-    <s v="Catálogos"/>
-    <s v="Bancos"/>
+    <n v="8"/>
+    <s v="Doc Elect "/>
+    <s v="Documentos Firmados "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Enviados "/>
+    <x v="0"/>
+    <s v="Generacion correcta de los registros"/>
     <s v="Generación correcta "/>
     <m/>
     <x v="0"/>
@@ -4969,46 +5097,46 @@
     <m/>
   </r>
   <r>
-    <n v="4"/>
-    <s v="Catálogos"/>
-    <s v="Bancos"/>
+    <n v="9"/>
+    <s v="Doc Elect "/>
+    <s v="Documentos Firmados "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Editar Registro "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Recibidos "/>
+    <x v="0"/>
+    <s v="No se visualizan registros"/>
     <s v="Correcta Edición "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Catálogos"/>
-    <s v="Bancos"/>
+    <s v="0000081"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="DE-6"/>
+    <s v="08/0572023"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Doc Elect "/>
+    <s v="Documentos Firmados "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Eliminar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Eliinación Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="Catálogos"/>
-    <s v="Divisas"/>
+    <s v="iclechuga"/>
+    <s v="Histórico "/>
+    <x v="0"/>
+    <s v="Se visualizan los registros archivados y se eliminan y decargan correctamente"/>
+    <s v="Eliminación Correcta "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Doc Elect "/>
+    <s v="Configuración "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Agragar "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Agregar "/>
+    <x v="0"/>
+    <s v="Registro agregado y modificado"/>
     <s v="Registro Agregado  "/>
     <m/>
     <x v="0"/>
@@ -5017,14 +5145,14 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
-    <s v="Catálogos"/>
-    <s v="Divisas"/>
+    <n v="12"/>
+    <s v="Doc Elect "/>
+    <s v="Configuración "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Busqueda "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Editar Leyenda de la firma "/>
+    <x v="0"/>
+    <s v="Ventana para ingreso de leyenda"/>
     <s v="Busqueda Correcta "/>
     <m/>
     <x v="0"/>
@@ -5033,14 +5161,14 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
-    <s v="Catálogos"/>
-    <s v="Divisas"/>
+    <n v="13"/>
+    <s v="Doc Elect "/>
+    <s v="Configuración "/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <m/>
+    <s v="iclechuga"/>
+    <s v="Protección de descarga de Documentos por token."/>
+    <x v="0"/>
+    <s v="Mensaje de permiso generado correctamente"/>
     <s v="Generación correcta "/>
     <m/>
     <x v="0"/>
@@ -5049,527 +5177,447 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
-    <s v="Catálogos"/>
-    <s v="Divisas"/>
+    <n v="14"/>
+    <s v="Doc Elect "/>
+    <s v="Cerrar Sesion"/>
     <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Editar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Correcta Edición "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Catálogos"/>
-    <s v="Divisas"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Eliminar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Eliinación Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Catálogos"/>
-    <s v="Avisos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Agragar "/>
-    <x v="0"/>
-    <m/>
-    <s v="Registro Agregado  "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Catálogos"/>
-    <s v="Avisos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Busqueda "/>
-    <x v="0"/>
-    <m/>
-    <s v="Busqueda Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="Catálogos"/>
-    <s v="Avisos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <m/>
-    <s v="Generación correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Catálogos"/>
-    <s v="Avisos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Editar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Correcta Edición "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="Catálogos"/>
-    <s v="Avisos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Eliminar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Eliinación Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Catálogos"/>
-    <s v="Municipios"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Agragar "/>
-    <x v="0"/>
-    <m/>
-    <s v="Registro Agregado  "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Catálogos"/>
-    <s v="Municipios"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Busqueda "/>
-    <x v="0"/>
-    <m/>
-    <s v="Busqueda Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Catálogos"/>
-    <s v="Municipios"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <m/>
-    <s v="Generación correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Catálogos"/>
-    <s v="Municipios"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Editar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Correcta Edición "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="Catálogos"/>
-    <s v="Municipios"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Eliminar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Eliinación Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="Catálogos"/>
-    <s v="Eventos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Agragar "/>
-    <x v="0"/>
-    <m/>
-    <s v="Registro Agregado  "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="Catálogos"/>
-    <s v="Eventos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Busqueda "/>
-    <x v="0"/>
-    <m/>
-    <s v="Busqueda Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="23"/>
-    <s v="Catálogos"/>
-    <s v="Eventos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <m/>
-    <s v="Generación correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="24"/>
-    <s v="Catálogos"/>
-    <s v="Eventos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Editar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Correcta Edición "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="25"/>
-    <s v="Catálogos"/>
-    <s v="Eventos"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Eliminar Registro "/>
-    <x v="0"/>
-    <m/>
-    <s v="Eliinación Correcta "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <s v="Contacto"/>
-    <s v="Contacto Municipio"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Validar Información de los Municipios"/>
-    <x v="0"/>
-    <m/>
-    <s v="Información se Muestra de Forma Correcta"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="27"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Ingreso a la Ventana"/>
-    <x v="0"/>
-    <m/>
-    <s v="se Muestre la ventana Correctamente"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="28"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Filtro Estatus"/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtro Correcto"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Filtro Tipo de Solicitud"/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtro Correcto"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="30"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Filtro Fondo"/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtro Correcto"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="31"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Filtro Municipio"/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtro Correcto"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="32"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Filtro Mes"/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtro Correcto"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="33"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Mostrar Todo"/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtro Correcto"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="34"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Integrar Operación"/>
-    <x v="0"/>
-    <m/>
-    <s v="Las operaciones se integraron correctamente"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="35"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Descargar Plantilla"/>
-    <x v="0"/>
-    <m/>
-    <s v="Descarga de Reporte Correctamente"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="36"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Carga Plantilla Anticipos"/>
-    <x v="0"/>
-    <m/>
-    <s v="Carga de plantilla correctamente"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="37"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Distribuir en Fideicomisos"/>
-    <x v="0"/>
-    <m/>
-    <s v="Generación de Operaciones según los fideicomisos Registrados"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="38"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Eliminar Registro"/>
-    <x v="0"/>
-    <m/>
-    <s v="Eliminación de Registros"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="39"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Cargar Plantilla Migración"/>
-    <x v="0"/>
-    <m/>
-    <s v="Carga de plantilla correctamente"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="40"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Integración Masiva"/>
-    <x v="0"/>
-    <m/>
-    <s v="Integración de las operaciones de forma masiva"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="41"/>
-    <s v="Participaciones"/>
-    <s v="Participaciones y Aportaciones"/>
-    <s v="capturista"/>
-    <s v="veronica.cardenaz"/>
-    <s v="Unificación de Registro"/>
-    <x v="0"/>
-    <m/>
-    <s v="Unificación de las operaciones exitosamente"/>
+    <s v="iclechuga"/>
+    <s v="Cerrar Sesion"/>
+    <x v="0"/>
+    <s v="Salir de la aplicacion"/>
+    <s v="Salir de la aplicación"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -10524,7 +10572,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10548,15 +10711,15 @@
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="10">
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
         <item m="1" x="5"/>
-        <item m="1" x="8"/>
+        <item x="0"/>
         <item m="1" x="4"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
         <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10701,9 +10864,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -10720,13 +10883,13 @@
       <items count="10">
         <item h="1" x="0"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
         <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10736,7 +10899,10 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -10753,121 +10919,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11156,9 +11207,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11180,94 +11231,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="20" t="s">
+      <c r="A3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -11318,28 +11369,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -11348,28 +11399,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -11378,25 +11429,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>21</v>
@@ -11408,28 +11459,28 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -11438,28 +11489,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -11468,25 +11519,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -11498,25 +11549,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>20</v>
@@ -11528,22 +11579,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>21</v>
@@ -11555,55 +11609,69 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -11612,22 +11680,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -11639,22 +11710,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>20</v>
@@ -11666,22 +11740,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>21</v>
@@ -11692,44 +11769,34 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>15</v>
-      </c>
       <c r="C21" s="3"/>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -12877,12 +12944,12 @@
     </row>
     <row r="354" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E354" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="355" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E355" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -12895,10 +12962,13 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J15" r:id="rId1" display="http://10.200.4.202/view.php?id=81"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -12937,8 +13007,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
@@ -12951,62 +13021,73 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="16">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="15">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="15"/>
+      <c r="A25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B49" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13017,10 +13098,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13031,7 +13112,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -13045,42 +13126,58 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
+++ b/DOC ELEC/ENTREGABLES/Matriz de Pruebas doc elec/Matriz de Pruebas Doc Elec.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QA\Documents\GitHub\All-documents\DOC ELEC\ENTREGABLES\Matriz de Pruebas doc elec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\DOC ELEC\ENTREGABLES\Matriz de Pruebas doc elec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
-    <sheet name="CPH" sheetId="1" r:id="rId1"/>
+    <sheet name="docelec" sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -854,7 +854,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -943,7 +942,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1007,7 +1006,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
@@ -1078,7 +1077,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
@@ -1149,7 +1148,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
@@ -1220,7 +1219,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1272,7 +1271,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1296,7 +1295,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1320,7 +1319,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1344,7 +1343,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-02EC-495A-8B8F-3EA7E5F8CD95}"/>
               </c:ext>
@@ -1393,7 +1392,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -1401,6 +1400,9 @@
                       <c:h val="0.19715127701375246"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1478,7 +1480,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-02EC-495A-8B8F-3EA7E5F8CD95}"/>
             </c:ext>
@@ -1506,7 +1508,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1581,7 +1582,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1595,7 +1596,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1638,7 +1639,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1790,7 +1790,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2A21-478A-B235-4C607915975F}"/>
             </c:ext>
@@ -1939,7 +1939,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2003,7 +2002,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2017,7 +2016,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2672,7 +2671,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A312-4866-9CD0-0EF01A2514E4}"/>
             </c:ext>
@@ -2883,7 +2882,7 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4759,7 +4758,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4795,7 +4794,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4831,7 +4830,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4892,7 +4891,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="QA" refreshedDate="45057.577307523148" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="350">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N1048576" sheet="CPH"/>
+    <worksheetSource ref="A6:N1048576" sheet="docelec"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -10572,122 +10571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10864,8 +10748,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10919,6 +10803,121 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11208,7 +11207,7 @@
   <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
